--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter_neutralize.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter_neutralize.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0008691621237803058</v>
+        <v>0.0007616493062151821</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.001426989002887377</v>
+        <v>0.001377207368054794</v>
       </c>
       <c r="D3">
-        <v>0.0006950384882263033</v>
+        <v>0.0006950384882263038</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -442,13 +442,13 @@
         <v>0.0001888433629729678</v>
       </c>
       <c r="D4">
-        <v>0.0006182982860516528</v>
+        <v>0.000618298286051653</v>
       </c>
       <c r="E4">
-        <v>0.0006636721349567103</v>
+        <v>0.0006636721349567108</v>
       </c>
       <c r="F4">
-        <v>0.0007169417913755844</v>
+        <v>0.0007169417913755831</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0008095025773132592</v>
+        <v>0.0008095025773132589</v>
       </c>
       <c r="D5">
-        <v>0.0005739857237066033</v>
+        <v>0.0005739857237066031</v>
       </c>
       <c r="E5">
-        <v>0.0006160195143262958</v>
+        <v>0.0006160195143262963</v>
       </c>
       <c r="F5">
-        <v>0.000200558650200229</v>
+        <v>0.0002005586502002295</v>
       </c>
       <c r="G5">
-        <v>0.0005269592116494133</v>
+        <v>0.0005269592116494139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,16 +478,16 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0004399038511124818</v>
+        <v>0.0004399038511124819</v>
       </c>
       <c r="D6">
-        <v>0.0004855596145991698</v>
+        <v>0.0004855596145991696</v>
       </c>
       <c r="E6">
-        <v>0.0005469974202507434</v>
+        <v>0.0005469974202507438</v>
       </c>
       <c r="F6">
-        <v>0.0003109249078497332</v>
+        <v>0.0003109249078497325</v>
       </c>
       <c r="G6">
         <v>0.0003041048074361412</v>
@@ -502,16 +502,16 @@
         <v>0.0005153465594150792</v>
       </c>
       <c r="D7">
-        <v>0.001004823113376932</v>
+        <v>0.0009877109097507597</v>
       </c>
       <c r="E7">
         <v>0.0005220270644980829</v>
       </c>
       <c r="F7">
-        <v>0.0004014425756183457</v>
+        <v>0.0004183600859870071</v>
       </c>
       <c r="G7">
-        <v>0.0003167087327837525</v>
+        <v>0.0003318180570584225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02072752659794276</v>
+        <v>0.02028245385030196</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01747961498959596</v>
+        <v>0.01739086767027118</v>
       </c>
       <c r="D9">
         <v>0.01537097398590349</v>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01174503166692841</v>
+        <v>0.01174503166692842</v>
       </c>
       <c r="D10">
         <v>0.01240853351278712</v>
@@ -552,7 +552,7 @@
         <v>0.01124293659882717</v>
       </c>
       <c r="F10">
-        <v>0.01188397828051758</v>
+        <v>0.01188397828051757</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -564,16 +564,16 @@
         <v>0.01109580598261958</v>
       </c>
       <c r="D11">
-        <v>0.009781867907469944</v>
+        <v>0.009781867907469939</v>
       </c>
       <c r="E11">
-        <v>0.009564124117913729</v>
+        <v>0.009564124117913721</v>
       </c>
       <c r="F11">
-        <v>0.009090083307565939</v>
+        <v>0.009090083307565935</v>
       </c>
       <c r="G11">
-        <v>0.008829582588842822</v>
+        <v>0.008829582588842826</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01346649553331258</v>
+        <v>0.01346649553331259</v>
       </c>
       <c r="D12">
-        <v>0.009243413220997152</v>
+        <v>0.009243413220997141</v>
       </c>
       <c r="E12">
-        <v>0.00914903910245133</v>
+        <v>0.009149039102451326</v>
       </c>
       <c r="F12">
-        <v>0.008426951801676368</v>
+        <v>0.008426951801676363</v>
       </c>
       <c r="G12">
-        <v>0.008241097501839776</v>
+        <v>0.008241097501839762</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01014481187028139</v>
+        <v>0.01014481187028138</v>
       </c>
       <c r="D13">
-        <v>0.009530611224584127</v>
+        <v>0.009332038648692757</v>
       </c>
       <c r="E13">
-        <v>0.008802989688431389</v>
+        <v>0.008802989688431384</v>
       </c>
       <c r="F13">
-        <v>0.008631841431679213</v>
+        <v>0.008632915735985425</v>
       </c>
       <c r="G13">
-        <v>0.008553145346442026</v>
+        <v>0.008548101762318369</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.2068605854597128</v>
+        <v>0.1812725348792134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.3396233826871958</v>
+        <v>0.327775353597041</v>
       </c>
       <c r="D15">
-        <v>0.1654191601978602</v>
+        <v>0.1654191601978603</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.04494472038756633</v>
+        <v>0.04494472038756634</v>
       </c>
       <c r="D16">
         <v>0.1471549920802934</v>
       </c>
       <c r="E16">
-        <v>0.1579539681196971</v>
+        <v>0.1579539681196972</v>
       </c>
       <c r="F16">
-        <v>0.1706321463473891</v>
+        <v>0.1706321463473888</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.1926616134005557</v>
+        <v>0.1926616134005556</v>
       </c>
       <c r="D17">
-        <v>0.1366086022421716</v>
+        <v>0.1366086022421715</v>
       </c>
       <c r="E17">
-        <v>0.1466126444096584</v>
+        <v>0.1466126444096585</v>
       </c>
       <c r="F17">
-        <v>0.04773295874765451</v>
+        <v>0.04773295874765462</v>
       </c>
       <c r="G17">
-        <v>0.1254162923725604</v>
+        <v>0.1254162923725605</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -692,10 +692,10 @@
         <v>0.1155631882746024</v>
       </c>
       <c r="E18">
-        <v>0.1301853860196769</v>
+        <v>0.130185386019677</v>
       </c>
       <c r="F18">
-        <v>0.07400012806823651</v>
+        <v>0.07400012806823633</v>
       </c>
       <c r="G18">
         <v>0.0723769441698016</v>
@@ -710,16 +710,16 @@
         <v>0.1226524811407889</v>
       </c>
       <c r="D19">
-        <v>0.2391479009837098</v>
+        <v>0.2350751965206808</v>
       </c>
       <c r="E19">
         <v>0.1242424413505437</v>
       </c>
       <c r="F19">
-        <v>0.09554333299716629</v>
+        <v>0.09956970046490769</v>
       </c>
       <c r="G19">
-        <v>0.07537667840253309</v>
+        <v>0.07897269757990456</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.646906909599503</v>
+        <v>0.579326017224964</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.259439303407166</v>
+        <v>1.221705602725204</v>
       </c>
       <c r="D21">
-        <v>0.6975830919072521</v>
+        <v>0.6975830919072527</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.2480481614303761</v>
+        <v>0.248048161430376</v>
       </c>
       <c r="D22">
-        <v>0.7687162524680193</v>
+        <v>0.7687162524680196</v>
       </c>
       <c r="E22">
-        <v>0.9106726644327796</v>
+        <v>0.9106726644327804</v>
       </c>
       <c r="F22">
-        <v>0.9307017398491771</v>
+        <v>0.930701739849176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -772,16 +772,16 @@
         <v>1.125506118144328</v>
       </c>
       <c r="D23">
-        <v>0.905248419629656</v>
+        <v>0.9052484196296561</v>
       </c>
       <c r="E23">
-        <v>0.9936598569247806</v>
+        <v>0.9936598569247821</v>
       </c>
       <c r="F23">
-        <v>0.3403784162312207</v>
+        <v>0.3403784162312217</v>
       </c>
       <c r="G23">
-        <v>0.9207151854803008</v>
+        <v>0.9207151854803016</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.5039548755248086</v>
+        <v>0.5039548755248087</v>
       </c>
       <c r="D24">
-        <v>0.8103985741435479</v>
+        <v>0.8103985741435484</v>
       </c>
       <c r="E24">
-        <v>0.9223553536613533</v>
+        <v>0.9223553536613545</v>
       </c>
       <c r="F24">
-        <v>0.569211260323405</v>
+        <v>0.569211260323404</v>
       </c>
       <c r="G24">
-        <v>0.5692810296167352</v>
+        <v>0.5692810296167361</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.7836891999079107</v>
+        <v>0.7836891999079111</v>
       </c>
       <c r="D25">
-        <v>1.62651225870447</v>
+        <v>1.632833118632735</v>
       </c>
       <c r="E25">
-        <v>0.9148529756029321</v>
+        <v>0.9148529756029327</v>
       </c>
       <c r="F25">
-        <v>0.7174777792147137</v>
+        <v>0.747620532484667</v>
       </c>
       <c r="G25">
-        <v>0.5712453329211893</v>
+        <v>0.5988510438178214</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.2087080219876316</v>
+        <v>-0.2087080219876314</v>
       </c>
       <c r="D27">
-        <v>-0.3497996347400206</v>
+        <v>-0.3497996347400208</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.2938076012895454</v>
+        <v>-0.2938076012895462</v>
       </c>
       <c r="D28">
-        <v>-0.2826375213123632</v>
+        <v>-0.2826375213123631</v>
       </c>
       <c r="E28">
-        <v>-0.2313714768050142</v>
+        <v>-0.231371476805014</v>
       </c>
       <c r="F28">
-        <v>-0.2087637418090168</v>
+        <v>-0.2087637418090167</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,16 +873,16 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.1963119984241641</v>
+        <v>-0.1963119984241642</v>
       </c>
       <c r="D29">
         <v>-0.2313745384068783</v>
       </c>
       <c r="E29">
-        <v>-0.2466268651258791</v>
+        <v>-0.2466268651258795</v>
       </c>
       <c r="F29">
-        <v>-0.2761391663934235</v>
+        <v>-0.2761391663934238</v>
       </c>
       <c r="G29">
         <v>-0.1993516493874353</v>
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.2174312543604002</v>
+        <v>-0.2174312543604001</v>
       </c>
       <c r="D30">
         <v>-0.1754243019942466</v>
       </c>
       <c r="E30">
-        <v>-0.1798202897099499</v>
+        <v>-0.1798202897099493</v>
       </c>
       <c r="F30">
         <v>-0.2489809503556417</v>
       </c>
       <c r="G30">
-        <v>-0.2711749814008936</v>
+        <v>-0.2711749814008944</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -918,16 +918,16 @@
         <v>-0.1231357031240782</v>
       </c>
       <c r="D31">
-        <v>-0.1390897000590301</v>
+        <v>-0.1390897000590302</v>
       </c>
       <c r="E31">
-        <v>-0.2304478195988364</v>
+        <v>-0.2304478195988367</v>
       </c>
       <c r="F31">
-        <v>-0.2608654274142037</v>
+        <v>-0.260865427414204</v>
       </c>
       <c r="G31">
-        <v>-0.2251040298415055</v>
+        <v>-0.2251040298415061</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.949191926871143E-05</v>
+        <v>-6.589982312074782E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0009697925263828221</v>
+        <v>0.0009209769325350139</v>
       </c>
       <c r="D3">
-        <v>-0.0005807330520729185</v>
+        <v>-0.0005807330520729181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.558526111197382E-05</v>
+        <v>1.55852611119739E-05</v>
       </c>
       <c r="D4">
-        <v>0.0002339510337425061</v>
+        <v>0.0002339510337425062</v>
       </c>
       <c r="E4">
-        <v>0.0002794739972964762</v>
+        <v>0.0002794739972964767</v>
       </c>
       <c r="F4">
-        <v>-0.000586503875288576</v>
+        <v>-0.0005865038752885759</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0006976580938151427</v>
+        <v>0.0006976580938151425</v>
       </c>
       <c r="D5">
-        <v>0.0003115076231081846</v>
+        <v>0.0003115076231081843</v>
       </c>
       <c r="E5">
-        <v>0.0003381587560174059</v>
+        <v>0.0003381587560174063</v>
       </c>
       <c r="F5">
-        <v>-0.0002507345037955473</v>
+        <v>-0.0002507345037955464</v>
       </c>
       <c r="G5">
-        <v>-0.0001522956885215057</v>
+        <v>-0.0001522956885215052</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0004112191216267147</v>
+        <v>0.0004112191216267148</v>
       </c>
       <c r="D6">
-        <v>0.0002848713689248716</v>
+        <v>0.0002848713689248714</v>
       </c>
       <c r="E6">
-        <v>0.0003316156517608437</v>
+        <v>0.0003316156517608442</v>
       </c>
       <c r="F6">
-        <v>-5.09625952683396E-05</v>
+        <v>-5.096259526834063E-05</v>
       </c>
       <c r="G6">
-        <v>-4.324968952430563E-05</v>
+        <v>-4.32496895243058E-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0004925743616943703</v>
+        <v>0.0004925743616943704</v>
       </c>
       <c r="D7">
-        <v>0.0009162422043062563</v>
+        <v>0.0008994225399366071</v>
       </c>
       <c r="E7">
-        <v>0.0003452500695435132</v>
+        <v>0.0003452500695435134</v>
       </c>
       <c r="F7">
-        <v>0.0002175135123700357</v>
+        <v>0.0002341073143769996</v>
       </c>
       <c r="G7">
-        <v>7.783802480798128E-05</v>
+        <v>9.265793083501773E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02077488270199567</v>
+        <v>0.02033973679003367</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01747996332088683</v>
+        <v>0.017392614570251</v>
       </c>
       <c r="D9">
         <v>0.01537732667243574</v>
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01174251303609784</v>
+        <v>0.01174251303609785</v>
       </c>
       <c r="D10">
         <v>0.01240918352614991</v>
@@ -1109,7 +1109,7 @@
         <v>0.01123648926296391</v>
       </c>
       <c r="F10">
-        <v>0.01190166834505564</v>
+        <v>0.01190166834505563</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.0110929792913546</v>
+        <v>0.01109297929135459</v>
       </c>
       <c r="D11">
-        <v>0.009773761319915046</v>
+        <v>0.00977376131991504</v>
       </c>
       <c r="E11">
-        <v>0.00955196286833467</v>
+        <v>0.009551962868334662</v>
       </c>
       <c r="F11">
-        <v>0.00908388045076537</v>
+        <v>0.009083880450765365</v>
       </c>
       <c r="G11">
-        <v>0.008828725043404343</v>
+        <v>0.008828725043404347</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1142,16 +1142,16 @@
         <v>0.01346688866503871</v>
       </c>
       <c r="D12">
-        <v>0.009239648484639519</v>
+        <v>0.009239648484639507</v>
       </c>
       <c r="E12">
-        <v>0.009143105193808418</v>
+        <v>0.009143105193808414</v>
       </c>
       <c r="F12">
-        <v>0.008420155925137411</v>
+        <v>0.008420155925137405</v>
       </c>
       <c r="G12">
-        <v>0.008232947828572737</v>
+        <v>0.008232947828572723</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01014616607801583</v>
+        <v>0.01014616607801582</v>
       </c>
       <c r="D13">
-        <v>0.009531070772073035</v>
+        <v>0.009332961699862561</v>
       </c>
       <c r="E13">
-        <v>0.008794418038452271</v>
+        <v>0.008794418038452267</v>
       </c>
       <c r="F13">
-        <v>0.008626677352200967</v>
+        <v>0.008627821939103109</v>
       </c>
       <c r="G13">
-        <v>0.008550910184811288</v>
+        <v>0.008546083201065499</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.009399076785953321</v>
+        <v>-0.01568415790273798</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.2308106212791117</v>
+        <v>0.2191925099433333</v>
       </c>
       <c r="D15">
-        <v>-0.1382144663933546</v>
+        <v>-0.1382144663933545</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.00370929214464977</v>
+        <v>0.003709292144649789</v>
       </c>
       <c r="D16">
-        <v>0.05568034603071645</v>
+        <v>0.05568034603071649</v>
       </c>
       <c r="E16">
-        <v>0.06651481135656133</v>
+        <v>0.06651481135656145</v>
       </c>
       <c r="F16">
         <v>-0.1395879223186811</v>
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.166042626328004</v>
+        <v>0.1660426263280039</v>
       </c>
       <c r="D17">
-        <v>0.07413881429974793</v>
+        <v>0.07413881429974788</v>
       </c>
       <c r="E17">
-        <v>0.08048178393214261</v>
+        <v>0.0804817839321427</v>
       </c>
       <c r="F17">
-        <v>-0.05967481190334026</v>
+        <v>-0.05967481190334005</v>
       </c>
       <c r="G17">
-        <v>-0.03624637386811836</v>
+        <v>-0.03624637386811824</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.09787015094715809</v>
+        <v>0.09787015094715812</v>
       </c>
       <c r="D18">
-        <v>0.06779938580411943</v>
+        <v>0.0677993858041194</v>
       </c>
       <c r="E18">
-        <v>0.0789245251190808</v>
+        <v>0.07892452511908092</v>
       </c>
       <c r="F18">
-        <v>-0.01212909767386483</v>
+        <v>-0.01212909767386507</v>
       </c>
       <c r="G18">
-        <v>-0.01029342610678474</v>
+        <v>-0.01029342610678478</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1267,16 +1267,16 @@
         <v>0.1172326980832601</v>
       </c>
       <c r="D19">
-        <v>0.218065644624889</v>
+        <v>0.2140625645049125</v>
       </c>
       <c r="E19">
-        <v>0.08216951655135614</v>
+        <v>0.08216951655135618</v>
       </c>
       <c r="F19">
-        <v>0.0517682159440685</v>
+        <v>0.05571754082172591</v>
       </c>
       <c r="G19">
-        <v>0.01852544990429954</v>
+        <v>0.02205258753873422</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.02932635845892114</v>
+        <v>-0.04998358463673136</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.8559074261313622</v>
+        <v>0.8169065125092518</v>
       </c>
       <c r="D21">
-        <v>-0.5826183814221908</v>
+        <v>-0.5826183814221904</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.02047582976926184</v>
+        <v>0.02047582976926193</v>
       </c>
       <c r="D22">
-        <v>0.2908507844188634</v>
+        <v>0.2908507844188635</v>
       </c>
       <c r="E22">
-        <v>0.3837065775945049</v>
+        <v>0.3837065775945058</v>
       </c>
       <c r="F22">
-        <v>-0.7602414080666972</v>
+        <v>-0.7602414080666974</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.970248351027525</v>
+        <v>0.9702483510275254</v>
       </c>
       <c r="D23">
         <v>0.4916945883558447</v>
       </c>
       <c r="E23">
-        <v>0.5461557246613427</v>
+        <v>0.5461557246613438</v>
       </c>
       <c r="F23">
-        <v>-0.4258250148455118</v>
+        <v>-0.4258250148455105</v>
       </c>
       <c r="G23">
-        <v>-0.2661203558959011</v>
+        <v>-0.2661203558959002</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.4710798302896485</v>
+        <v>0.4710798302896486</v>
       </c>
       <c r="D24">
-        <v>0.4756437910580813</v>
+        <v>0.4756437910580817</v>
       </c>
       <c r="E24">
-        <v>0.5595382528948565</v>
+        <v>0.5595382528948576</v>
       </c>
       <c r="F24">
-        <v>-0.09337269220936392</v>
+        <v>-0.09337269220936588</v>
       </c>
       <c r="G24">
-        <v>-0.08104311201111578</v>
+        <v>-0.08104311201111623</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.7489594674020609</v>
+        <v>0.7489594674020613</v>
       </c>
       <c r="D25">
-        <v>1.483054382922307</v>
+        <v>1.486732249070014</v>
       </c>
       <c r="E25">
-        <v>0.6056408321527087</v>
+        <v>0.6056408321527093</v>
       </c>
       <c r="F25">
-        <v>0.3889834865336227</v>
+        <v>0.4186029531291749</v>
       </c>
       <c r="G25">
-        <v>0.1404326013127346</v>
+        <v>0.1672645704500675</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1403,7 +1403,7 @@
         <v>-0.2491322220040912</v>
       </c>
       <c r="D27">
-        <v>-0.6972535403109216</v>
+        <v>-0.6972535403109211</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.3332526350766135</v>
+        <v>-0.3332526350766136</v>
       </c>
       <c r="D28">
-        <v>-0.282637521312363</v>
+        <v>-0.2826375213123629</v>
       </c>
       <c r="E28">
-        <v>-0.3118907496188695</v>
+        <v>-0.3118907496188693</v>
       </c>
       <c r="F28">
-        <v>-0.8305824281929043</v>
+        <v>-0.830582428192905</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.2185641860134652</v>
+        <v>-0.2185641860134653</v>
       </c>
       <c r="D29">
-        <v>-0.2746756479058956</v>
+        <v>-0.2746756479058959</v>
       </c>
       <c r="E29">
-        <v>-0.288635779138221</v>
+        <v>-0.2886357791382216</v>
       </c>
       <c r="F29">
-        <v>-0.5011839436902865</v>
+        <v>-0.5011839436902854</v>
       </c>
       <c r="G29">
-        <v>-0.3631326718535877</v>
+        <v>-0.3631326718535866</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.2174312543604003</v>
+        <v>-0.2174312543604</v>
       </c>
       <c r="D30">
-        <v>-0.2099839817483681</v>
+        <v>-0.2099839817483685</v>
       </c>
       <c r="E30">
-        <v>-0.2147371687573429</v>
+        <v>-0.2147371687573427</v>
       </c>
       <c r="F30">
-        <v>-0.3364232448194076</v>
+        <v>-0.3364232448194086</v>
       </c>
       <c r="G30">
-        <v>-0.3485231961912176</v>
+        <v>-0.3485231961912181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.1300271845895432</v>
+        <v>-0.1300271845895433</v>
       </c>
       <c r="D31">
-        <v>-0.1390897000590301</v>
+        <v>-0.1390897000590302</v>
       </c>
       <c r="E31">
         <v>-0.2757635257122117</v>
       </c>
       <c r="F31">
-        <v>-0.3015357468272129</v>
+        <v>-0.3015357468272128</v>
       </c>
       <c r="G31">
-        <v>-0.3096779384920364</v>
+        <v>-0.3096779384920366</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter_neutralize.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter_neutralize.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0007616493062151821</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.001377207368054794</v>
+        <v>0.00138</v>
       </c>
       <c r="D3">
-        <v>0.0006950384882263038</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0001888433629729678</v>
+        <v>0.00019</v>
       </c>
       <c r="D4">
-        <v>0.000618298286051653</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E4">
-        <v>0.0006636721349567108</v>
+        <v>0.00065</v>
       </c>
       <c r="F4">
-        <v>0.0007169417913755831</v>
+        <v>0.00072</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0008095025773132589</v>
+        <v>0.00081</v>
       </c>
       <c r="D5">
-        <v>0.0005739857237066031</v>
+        <v>0.00056</v>
       </c>
       <c r="E5">
-        <v>0.0006160195143262963</v>
+        <v>0.00061</v>
       </c>
       <c r="F5">
-        <v>0.0002005586502002295</v>
+        <v>0.0002</v>
       </c>
       <c r="G5">
-        <v>0.0005269592116494139</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0004399038511124819</v>
+        <v>0.00044</v>
       </c>
       <c r="D6">
-        <v>0.0004855596145991696</v>
+        <v>0.00047</v>
       </c>
       <c r="E6">
-        <v>0.0005469974202507438</v>
+        <v>0.00054</v>
       </c>
       <c r="F6">
-        <v>0.0003109249078497325</v>
+        <v>0.0003</v>
       </c>
       <c r="G6">
-        <v>0.0003041048074361412</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0005153465594150792</v>
+        <v>0.00052</v>
       </c>
       <c r="D7">
-        <v>0.0009877109097507597</v>
+        <v>0.00099</v>
       </c>
       <c r="E7">
-        <v>0.0005220270644980829</v>
+        <v>0.0005</v>
       </c>
       <c r="F7">
-        <v>0.0004183600859870071</v>
+        <v>0.0004</v>
       </c>
       <c r="G7">
-        <v>0.0003318180570584225</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02028245385030196</v>
+        <v>0.02028</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01739086767027118</v>
+        <v>0.01739</v>
       </c>
       <c r="D9">
-        <v>0.01537097398590349</v>
+        <v>0.01537</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01174503166692842</v>
+        <v>0.01175</v>
       </c>
       <c r="D10">
-        <v>0.01240853351278712</v>
+        <v>0.01241</v>
       </c>
       <c r="E10">
-        <v>0.01124293659882717</v>
+        <v>0.01125</v>
       </c>
       <c r="F10">
-        <v>0.01188397828051757</v>
+        <v>0.01188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01109580598261958</v>
+        <v>0.0111</v>
       </c>
       <c r="D11">
-        <v>0.009781867907469939</v>
+        <v>0.00979</v>
       </c>
       <c r="E11">
-        <v>0.009564124117913721</v>
+        <v>0.00958</v>
       </c>
       <c r="F11">
-        <v>0.009090083307565935</v>
+        <v>0.009090000000000001</v>
       </c>
       <c r="G11">
-        <v>0.008829582588842826</v>
+        <v>0.008829999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01346649553331259</v>
+        <v>0.01347</v>
       </c>
       <c r="D12">
-        <v>0.009243413220997141</v>
+        <v>0.00925</v>
       </c>
       <c r="E12">
-        <v>0.009149039102451326</v>
+        <v>0.00916</v>
       </c>
       <c r="F12">
-        <v>0.008426951801676363</v>
+        <v>0.00843</v>
       </c>
       <c r="G12">
-        <v>0.008241097501839762</v>
+        <v>0.00825</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01014481187028138</v>
+        <v>0.01014</v>
       </c>
       <c r="D13">
-        <v>0.009332038648692757</v>
+        <v>0.00933</v>
       </c>
       <c r="E13">
-        <v>0.008802989688431384</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="F13">
-        <v>0.008632915735985425</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="G13">
-        <v>0.008548101762318369</v>
+        <v>0.00855</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.1812725348792134</v>
+        <v>0.18127</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.327775353597041</v>
+        <v>0.32778</v>
       </c>
       <c r="D15">
-        <v>0.1654191601978603</v>
+        <v>0.16542</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.04494472038756634</v>
+        <v>0.04494</v>
       </c>
       <c r="D16">
-        <v>0.1471549920802934</v>
+        <v>0.1429</v>
       </c>
       <c r="E16">
-        <v>0.1579539681196972</v>
+        <v>0.15433</v>
       </c>
       <c r="F16">
-        <v>0.1706321463473888</v>
+        <v>0.17063</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.1926616134005556</v>
+        <v>0.19266</v>
       </c>
       <c r="D17">
-        <v>0.1366086022421715</v>
+        <v>0.13427</v>
       </c>
       <c r="E17">
-        <v>0.1466126444096585</v>
+        <v>0.14447</v>
       </c>
       <c r="F17">
-        <v>0.04773295874765462</v>
+        <v>0.04773</v>
       </c>
       <c r="G17">
-        <v>0.1254162923725605</v>
+        <v>0.12542</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1046971165647707</v>
+        <v>0.1047</v>
       </c>
       <c r="D18">
-        <v>0.1155631882746024</v>
+        <v>0.11299</v>
       </c>
       <c r="E18">
-        <v>0.130185386019677</v>
+        <v>0.12778</v>
       </c>
       <c r="F18">
-        <v>0.07400012806823633</v>
+        <v>0.07077</v>
       </c>
       <c r="G18">
-        <v>0.0723769441698016</v>
+        <v>0.06969</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.1226524811407889</v>
+        <v>0.12265</v>
       </c>
       <c r="D19">
-        <v>0.2350751965206808</v>
+        <v>0.23508</v>
       </c>
       <c r="E19">
-        <v>0.1242424413505437</v>
+        <v>0.11975</v>
       </c>
       <c r="F19">
-        <v>0.09956970046490769</v>
+        <v>0.09554</v>
       </c>
       <c r="G19">
-        <v>0.07897269757990456</v>
+        <v>0.07538</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.579326017224964</v>
+        <v>0.57933</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.221705602725204</v>
+        <v>1.22171</v>
       </c>
       <c r="D21">
-        <v>0.6975830919072527</v>
+        <v>0.69758</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.248048161430376</v>
+        <v>0.24805</v>
       </c>
       <c r="D22">
-        <v>0.7687162524680196</v>
+        <v>0.74655</v>
       </c>
       <c r="E22">
-        <v>0.9106726644327804</v>
+        <v>0.88954</v>
       </c>
       <c r="F22">
-        <v>0.930701739849176</v>
+        <v>0.9307</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.125506118144328</v>
+        <v>1.12551</v>
       </c>
       <c r="D23">
-        <v>0.9052484196296561</v>
+        <v>0.88873</v>
       </c>
       <c r="E23">
-        <v>0.9936598569247821</v>
+        <v>0.97799</v>
       </c>
       <c r="F23">
-        <v>0.3403784162312217</v>
+        <v>0.34038</v>
       </c>
       <c r="G23">
-        <v>0.9207151854803016</v>
+        <v>0.92072</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.5039548755248087</v>
+        <v>0.50395</v>
       </c>
       <c r="D24">
-        <v>0.8103985741435484</v>
+        <v>0.7914600000000001</v>
       </c>
       <c r="E24">
-        <v>0.9223553536613545</v>
+        <v>0.90424</v>
       </c>
       <c r="F24">
-        <v>0.569211260323404</v>
+        <v>0.54444</v>
       </c>
       <c r="G24">
-        <v>0.5692810296167361</v>
+        <v>0.54789</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.7836891999079111</v>
+        <v>0.78369</v>
       </c>
       <c r="D25">
-        <v>1.632833118632735</v>
+        <v>1.63283</v>
       </c>
       <c r="E25">
-        <v>0.9148529756029327</v>
+        <v>0.8824</v>
       </c>
       <c r="F25">
-        <v>0.747620532484667</v>
+        <v>0.71748</v>
       </c>
       <c r="G25">
-        <v>0.5988510438178214</v>
+        <v>0.57125</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.412156388389578</v>
+        <v>-0.41216</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.2087080219876314</v>
+        <v>-0.20871</v>
       </c>
       <c r="D27">
-        <v>-0.3497996347400208</v>
+        <v>-0.3498</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.2938076012895462</v>
+        <v>-0.29381</v>
       </c>
       <c r="D28">
-        <v>-0.2826375213123631</v>
+        <v>-0.28264</v>
       </c>
       <c r="E28">
-        <v>-0.231371476805014</v>
+        <v>-0.23137</v>
       </c>
       <c r="F28">
-        <v>-0.2087637418090167</v>
+        <v>-0.20876</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.1963119984241642</v>
+        <v>-0.19631</v>
       </c>
       <c r="D29">
-        <v>-0.2313745384068783</v>
+        <v>-0.23137</v>
       </c>
       <c r="E29">
-        <v>-0.2466268651258795</v>
+        <v>-0.24663</v>
       </c>
       <c r="F29">
-        <v>-0.2761391663934238</v>
+        <v>-0.27614</v>
       </c>
       <c r="G29">
-        <v>-0.1993516493874353</v>
+        <v>-0.19935</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.2174312543604001</v>
+        <v>-0.21743</v>
       </c>
       <c r="D30">
-        <v>-0.1754243019942466</v>
+        <v>-0.17542</v>
       </c>
       <c r="E30">
-        <v>-0.1798202897099493</v>
+        <v>-0.17982</v>
       </c>
       <c r="F30">
-        <v>-0.2489809503556417</v>
+        <v>-0.24898</v>
       </c>
       <c r="G30">
-        <v>-0.2711749814008944</v>
+        <v>-0.27117</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.1231357031240782</v>
+        <v>-0.12314</v>
       </c>
       <c r="D31">
-        <v>-0.1390897000590302</v>
+        <v>-0.13909</v>
       </c>
       <c r="E31">
-        <v>-0.2304478195988367</v>
+        <v>-0.23045</v>
       </c>
       <c r="F31">
-        <v>-0.260865427414204</v>
+        <v>-0.26087</v>
       </c>
       <c r="G31">
-        <v>-0.2251040298415061</v>
+        <v>-0.2251</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-6.589982312074782E-05</v>
+        <v>-6.999999999999999E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0009209769325350139</v>
+        <v>0.00092</v>
       </c>
       <c r="D3">
-        <v>-0.0005807330520729181</v>
+        <v>-0.00058</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.55852611119739E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D4">
-        <v>0.0002339510337425062</v>
+        <v>0.00022</v>
       </c>
       <c r="E4">
-        <v>0.0002794739972964767</v>
+        <v>0.00026</v>
       </c>
       <c r="F4">
-        <v>-0.0005865038752885759</v>
+        <v>-0.00059</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0006976580938151425</v>
+        <v>0.0007</v>
       </c>
       <c r="D5">
-        <v>0.0003115076231081843</v>
+        <v>0.0003</v>
       </c>
       <c r="E5">
-        <v>0.0003381587560174063</v>
+        <v>0.00033</v>
       </c>
       <c r="F5">
-        <v>-0.0002507345037955464</v>
+        <v>-0.00025</v>
       </c>
       <c r="G5">
-        <v>-0.0001522956885215052</v>
+        <v>-0.00015</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0004112191216267148</v>
+        <v>0.00041</v>
       </c>
       <c r="D6">
-        <v>0.0002848713689248714</v>
+        <v>0.00027</v>
       </c>
       <c r="E6">
-        <v>0.0003316156517608442</v>
+        <v>0.00032</v>
       </c>
       <c r="F6">
-        <v>-5.096259526834063E-05</v>
+        <v>-6E-05</v>
       </c>
       <c r="G6">
-        <v>-4.32496895243058E-05</v>
+        <v>-5E-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0004925743616943704</v>
+        <v>0.00049</v>
       </c>
       <c r="D7">
-        <v>0.0008994225399366071</v>
+        <v>0.0009</v>
       </c>
       <c r="E7">
-        <v>0.0003452500695435134</v>
+        <v>0.00033</v>
       </c>
       <c r="F7">
-        <v>0.0002341073143769996</v>
+        <v>0.00022</v>
       </c>
       <c r="G7">
-        <v>9.265793083501773E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02033973679003367</v>
+        <v>0.02034</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.017392614570251</v>
+        <v>0.01739</v>
       </c>
       <c r="D9">
-        <v>0.01537732667243574</v>
+        <v>0.01538</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01174251303609785</v>
+        <v>0.01174</v>
       </c>
       <c r="D10">
-        <v>0.01240918352614991</v>
+        <v>0.01241</v>
       </c>
       <c r="E10">
-        <v>0.01123648926296391</v>
+        <v>0.01124</v>
       </c>
       <c r="F10">
-        <v>0.01190166834505563</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01109297929135459</v>
+        <v>0.01109</v>
       </c>
       <c r="D11">
-        <v>0.00977376131991504</v>
+        <v>0.00978</v>
       </c>
       <c r="E11">
-        <v>0.009551962868334662</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="F11">
-        <v>0.009083880450765365</v>
+        <v>0.00908</v>
       </c>
       <c r="G11">
-        <v>0.008828725043404347</v>
+        <v>0.008829999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01346688866503871</v>
+        <v>0.01347</v>
       </c>
       <c r="D12">
-        <v>0.009239648484639507</v>
+        <v>0.00925</v>
       </c>
       <c r="E12">
-        <v>0.009143105193808414</v>
+        <v>0.00915</v>
       </c>
       <c r="F12">
-        <v>0.008420155925137405</v>
+        <v>0.00842</v>
       </c>
       <c r="G12">
-        <v>0.008232947828572723</v>
+        <v>0.008240000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01014616607801582</v>
+        <v>0.01015</v>
       </c>
       <c r="D13">
-        <v>0.009332961699862561</v>
+        <v>0.00933</v>
       </c>
       <c r="E13">
-        <v>0.008794418038452267</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="F13">
-        <v>0.008627821939103109</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="G13">
-        <v>0.008546083201065499</v>
+        <v>0.00855</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.01568415790273798</v>
+        <v>-0.01568</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.2191925099433333</v>
+        <v>0.21919</v>
       </c>
       <c r="D15">
-        <v>-0.1382144663933545</v>
+        <v>-0.13821</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.003709292144649789</v>
+        <v>0.00371</v>
       </c>
       <c r="D16">
-        <v>0.05568034603071649</v>
+        <v>0.05151</v>
       </c>
       <c r="E16">
-        <v>0.06651481135656145</v>
+        <v>0.06296</v>
       </c>
       <c r="F16">
-        <v>-0.1395879223186811</v>
+        <v>-0.13959</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.1660426263280039</v>
+        <v>0.16604</v>
       </c>
       <c r="D17">
-        <v>0.07413881429974788</v>
+        <v>0.07184</v>
       </c>
       <c r="E17">
-        <v>0.0804817839321427</v>
+        <v>0.07838000000000001</v>
       </c>
       <c r="F17">
-        <v>-0.05967481190334005</v>
+        <v>-0.05967</v>
       </c>
       <c r="G17">
-        <v>-0.03624637386811824</v>
+        <v>-0.03625</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.09787015094715812</v>
+        <v>0.09787</v>
       </c>
       <c r="D18">
-        <v>0.0677993858041194</v>
+        <v>0.06528</v>
       </c>
       <c r="E18">
-        <v>0.07892452511908092</v>
+        <v>0.07656</v>
       </c>
       <c r="F18">
-        <v>-0.01212909767386507</v>
+        <v>-0.01529</v>
       </c>
       <c r="G18">
-        <v>-0.01029342610678478</v>
+        <v>-0.01292</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.1172326980832601</v>
+        <v>0.11723</v>
       </c>
       <c r="D19">
-        <v>0.2140625645049125</v>
+        <v>0.21406</v>
       </c>
       <c r="E19">
-        <v>0.08216951655135618</v>
+        <v>0.07776</v>
       </c>
       <c r="F19">
-        <v>0.05571754082172591</v>
+        <v>0.05177</v>
       </c>
       <c r="G19">
-        <v>0.02205258753873422</v>
+        <v>0.01853</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.04998358463673136</v>
+        <v>-0.04998</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.8169065125092518</v>
+        <v>0.81691</v>
       </c>
       <c r="D21">
-        <v>-0.5826183814221904</v>
+        <v>-0.58262</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.02047582976926193</v>
+        <v>0.02048</v>
       </c>
       <c r="D22">
-        <v>0.2908507844188635</v>
+        <v>0.26908</v>
       </c>
       <c r="E22">
-        <v>0.3837065775945058</v>
+        <v>0.36312</v>
       </c>
       <c r="F22">
-        <v>-0.7602414080666974</v>
+        <v>-0.76024</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.9702483510275254</v>
+        <v>0.9702499999999999</v>
       </c>
       <c r="D23">
-        <v>0.4916945883558447</v>
+        <v>0.47594</v>
       </c>
       <c r="E23">
-        <v>0.5461557246613438</v>
+        <v>0.53128</v>
       </c>
       <c r="F23">
-        <v>-0.4258250148455105</v>
+        <v>-0.42583</v>
       </c>
       <c r="G23">
-        <v>-0.2661203558959002</v>
+        <v>-0.26612</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.4710798302896486</v>
+        <v>0.47108</v>
       </c>
       <c r="D24">
-        <v>0.4756437910580817</v>
+        <v>0.45743</v>
       </c>
       <c r="E24">
-        <v>0.5595382528948576</v>
+        <v>0.54218</v>
       </c>
       <c r="F24">
-        <v>-0.09337269220936588</v>
+        <v>-0.11776</v>
       </c>
       <c r="G24">
-        <v>-0.08104311201111623</v>
+        <v>-0.1017</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.7489594674020613</v>
+        <v>0.74896</v>
       </c>
       <c r="D25">
-        <v>1.486732249070014</v>
+        <v>1.48673</v>
       </c>
       <c r="E25">
-        <v>0.6056408321527093</v>
+        <v>0.57357</v>
       </c>
       <c r="F25">
-        <v>0.4186029531291749</v>
+        <v>0.38898</v>
       </c>
       <c r="G25">
-        <v>0.1672645704500675</v>
+        <v>0.14043</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.6515483254282703</v>
+        <v>-0.65155</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.2491322220040912</v>
+        <v>-0.24913</v>
       </c>
       <c r="D27">
-        <v>-0.6972535403109211</v>
+        <v>-0.69725</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.3332526350766136</v>
+        <v>-0.33325</v>
       </c>
       <c r="D28">
-        <v>-0.2826375213123629</v>
+        <v>-0.28264</v>
       </c>
       <c r="E28">
-        <v>-0.3118907496188693</v>
+        <v>-0.31189</v>
       </c>
       <c r="F28">
-        <v>-0.830582428192905</v>
+        <v>-0.83058</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.2185641860134653</v>
+        <v>-0.21856</v>
       </c>
       <c r="D29">
-        <v>-0.2746756479058959</v>
+        <v>-0.27468</v>
       </c>
       <c r="E29">
-        <v>-0.2886357791382216</v>
+        <v>-0.28864</v>
       </c>
       <c r="F29">
-        <v>-0.5011839436902854</v>
+        <v>-0.50118</v>
       </c>
       <c r="G29">
-        <v>-0.3631326718535866</v>
+        <v>-0.36313</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.2174312543604</v>
+        <v>-0.21743</v>
       </c>
       <c r="D30">
-        <v>-0.2099839817483685</v>
+        <v>-0.20998</v>
       </c>
       <c r="E30">
-        <v>-0.2147371687573427</v>
+        <v>-0.21474</v>
       </c>
       <c r="F30">
-        <v>-0.3364232448194086</v>
+        <v>-0.33642</v>
       </c>
       <c r="G30">
-        <v>-0.3485231961912181</v>
+        <v>-0.34852</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.1300271845895433</v>
+        <v>-0.13003</v>
       </c>
       <c r="D31">
-        <v>-0.1390897000590302</v>
+        <v>-0.13909</v>
       </c>
       <c r="E31">
-        <v>-0.2757635257122117</v>
+        <v>-0.27576</v>
       </c>
       <c r="F31">
-        <v>-0.3015357468272128</v>
+        <v>-0.30154</v>
       </c>
       <c r="G31">
-        <v>-0.3096779384920366</v>
+        <v>-0.30968</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter_neutralize.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter_neutralize.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00076</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00138</v>
+        <v>0.00075</v>
       </c>
       <c r="D3">
-        <v>0.0007</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00019</v>
+        <v>0.00034</v>
       </c>
       <c r="D4">
-        <v>0.0005999999999999999</v>
+        <v>0.00059</v>
       </c>
       <c r="E4">
-        <v>0.00065</v>
+        <v>0.00057</v>
       </c>
       <c r="F4">
-        <v>0.00072</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00081</v>
+        <v>0.00072</v>
       </c>
       <c r="D5">
-        <v>0.00056</v>
+        <v>0.00055</v>
       </c>
       <c r="E5">
-        <v>0.00061</v>
+        <v>0.00054</v>
       </c>
       <c r="F5">
-        <v>0.0002</v>
+        <v>0.00067</v>
       </c>
       <c r="G5">
-        <v>0.00053</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00044</v>
+        <v>0.00068</v>
       </c>
       <c r="D6">
+        <v>0.00049</v>
+      </c>
+      <c r="E6">
+        <v>0.00038</v>
+      </c>
+      <c r="F6">
+        <v>0.00039</v>
+      </c>
+      <c r="G6">
         <v>0.00047</v>
-      </c>
-      <c r="E6">
-        <v>0.00054</v>
-      </c>
-      <c r="F6">
-        <v>0.0003</v>
-      </c>
-      <c r="G6">
-        <v>0.00029</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00052</v>
+        <v>0.00051</v>
       </c>
       <c r="D7">
-        <v>0.00099</v>
+        <v>0.00044</v>
       </c>
       <c r="E7">
-        <v>0.0005</v>
+        <v>0.00047</v>
       </c>
       <c r="F7">
-        <v>0.0004</v>
+        <v>0.00046</v>
       </c>
       <c r="G7">
-        <v>0.00032</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02028</v>
+        <v>0.02124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01739</v>
+        <v>0.01729</v>
       </c>
       <c r="D9">
-        <v>0.01537</v>
+        <v>0.01691</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01175</v>
+        <v>0.01258</v>
       </c>
       <c r="D10">
-        <v>0.01241</v>
+        <v>0.01161</v>
       </c>
       <c r="E10">
-        <v>0.01125</v>
+        <v>0.01178</v>
       </c>
       <c r="F10">
-        <v>0.01188</v>
+        <v>0.01252</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.0111</v>
+        <v>0.01128</v>
       </c>
       <c r="D11">
-        <v>0.00979</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="E11">
-        <v>0.00958</v>
+        <v>0.0101</v>
       </c>
       <c r="F11">
-        <v>0.009090000000000001</v>
+        <v>0.01022</v>
       </c>
       <c r="G11">
-        <v>0.008829999999999999</v>
+        <v>0.009939999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01347</v>
+        <v>0.00963</v>
       </c>
       <c r="D12">
-        <v>0.00925</v>
+        <v>0.00891</v>
       </c>
       <c r="E12">
-        <v>0.00916</v>
+        <v>0.00891</v>
       </c>
       <c r="F12">
-        <v>0.00843</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.00825</v>
+        <v>0.009090000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01014</v>
+        <v>0.00885</v>
       </c>
       <c r="D13">
-        <v>0.00933</v>
+        <v>0.00805</v>
       </c>
       <c r="E13">
-        <v>0.008800000000000001</v>
+        <v>0.00844</v>
       </c>
       <c r="F13">
-        <v>0.008630000000000001</v>
+        <v>0.00827</v>
       </c>
       <c r="G13">
-        <v>0.00855</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.18127</v>
+        <v>0.13951</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.32778</v>
+        <v>0.17953</v>
       </c>
       <c r="D15">
-        <v>0.16542</v>
+        <v>0.25284</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.04494</v>
+        <v>0.08104</v>
       </c>
       <c r="D16">
-        <v>0.1429</v>
+        <v>0.14161</v>
       </c>
       <c r="E16">
-        <v>0.15433</v>
+        <v>0.13644</v>
       </c>
       <c r="F16">
-        <v>0.17063</v>
+        <v>0.21732</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.19266</v>
+        <v>0.17022</v>
       </c>
       <c r="D17">
-        <v>0.13427</v>
+        <v>0.13119</v>
       </c>
       <c r="E17">
-        <v>0.14447</v>
+        <v>0.12853</v>
       </c>
       <c r="F17">
-        <v>0.04773</v>
+        <v>0.15978</v>
       </c>
       <c r="G17">
-        <v>0.12542</v>
+        <v>0.1668</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1047</v>
+        <v>0.16081</v>
       </c>
       <c r="D18">
-        <v>0.11299</v>
+        <v>0.11606</v>
       </c>
       <c r="E18">
-        <v>0.12778</v>
+        <v>0.09131</v>
       </c>
       <c r="F18">
-        <v>0.07077</v>
+        <v>0.09361999999999999</v>
       </c>
       <c r="G18">
-        <v>0.06969</v>
+        <v>0.11213</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.12265</v>
+        <v>0.12101</v>
       </c>
       <c r="D19">
-        <v>0.23508</v>
+        <v>0.10436</v>
       </c>
       <c r="E19">
-        <v>0.11975</v>
+        <v>0.11212</v>
       </c>
       <c r="F19">
-        <v>0.09554</v>
+        <v>0.11</v>
       </c>
       <c r="G19">
-        <v>0.07538</v>
+        <v>0.12144</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.57933</v>
+        <v>0.42576</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.22171</v>
+        <v>0.6730699999999999</v>
       </c>
       <c r="D21">
-        <v>0.69758</v>
+        <v>0.96915</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.24805</v>
+        <v>0.41744</v>
       </c>
       <c r="D22">
-        <v>0.74655</v>
+        <v>0.79092</v>
       </c>
       <c r="E22">
-        <v>0.88954</v>
+        <v>0.7506699999999999</v>
       </c>
       <c r="F22">
-        <v>0.9307</v>
+        <v>1.12558</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.12551</v>
+        <v>0.97789</v>
       </c>
       <c r="D23">
-        <v>0.88873</v>
+        <v>0.87438</v>
       </c>
       <c r="E23">
-        <v>0.97799</v>
+        <v>0.82462</v>
       </c>
       <c r="F23">
-        <v>0.34038</v>
+        <v>1.01372</v>
       </c>
       <c r="G23">
-        <v>0.92072</v>
+        <v>1.08776</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.50395</v>
+        <v>1.08214</v>
       </c>
       <c r="D24">
-        <v>0.7914600000000001</v>
+        <v>0.84395</v>
       </c>
       <c r="E24">
-        <v>0.90424</v>
+        <v>0.66451</v>
       </c>
       <c r="F24">
-        <v>0.54444</v>
+        <v>0.6745100000000001</v>
       </c>
       <c r="G24">
-        <v>0.54789</v>
+        <v>0.79919</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.78369</v>
+        <v>0.8859900000000001</v>
       </c>
       <c r="D25">
-        <v>1.63283</v>
+        <v>0.84071</v>
       </c>
       <c r="E25">
-        <v>0.8824</v>
+        <v>0.86092</v>
       </c>
       <c r="F25">
-        <v>0.71748</v>
+        <v>0.8626200000000001</v>
       </c>
       <c r="G25">
-        <v>0.57125</v>
+        <v>0.95983</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.41216</v>
+        <v>-0.37761</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.20871</v>
+        <v>-0.28905</v>
       </c>
       <c r="D27">
-        <v>-0.3498</v>
+        <v>-0.30949</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.29381</v>
+        <v>-0.30405</v>
       </c>
       <c r="D28">
-        <v>-0.28264</v>
+        <v>-0.19655</v>
       </c>
       <c r="E28">
-        <v>-0.23137</v>
+        <v>-0.19604</v>
       </c>
       <c r="F28">
-        <v>-0.20876</v>
+        <v>-0.1725</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.19631</v>
+        <v>-0.22202</v>
       </c>
       <c r="D29">
-        <v>-0.23137</v>
+        <v>-0.20515</v>
       </c>
       <c r="E29">
-        <v>-0.24663</v>
+        <v>-0.17633</v>
       </c>
       <c r="F29">
-        <v>-0.27614</v>
+        <v>-0.18372</v>
       </c>
       <c r="G29">
-        <v>-0.19935</v>
+        <v>-0.18664</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.21743</v>
+        <v>-0.1676</v>
       </c>
       <c r="D30">
-        <v>-0.17542</v>
+        <v>-0.2291</v>
       </c>
       <c r="E30">
-        <v>-0.17982</v>
+        <v>-0.17951</v>
       </c>
       <c r="F30">
-        <v>-0.24898</v>
+        <v>-0.20998</v>
       </c>
       <c r="G30">
-        <v>-0.27117</v>
+        <v>-0.1998</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.12314</v>
+        <v>-0.16516</v>
       </c>
       <c r="D31">
-        <v>-0.13909</v>
+        <v>-0.16367</v>
       </c>
       <c r="E31">
-        <v>-0.23045</v>
+        <v>-0.15787</v>
       </c>
       <c r="F31">
-        <v>-0.26087</v>
+        <v>-0.16206</v>
       </c>
       <c r="G31">
-        <v>-0.2251</v>
+        <v>-0.22719</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-6.999999999999999E-05</v>
+        <v>-0.00056</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00092</v>
+        <v>-0.00017</v>
       </c>
       <c r="D3">
-        <v>-0.00058</v>
+        <v>-0.00037</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2E-05</v>
+        <v>-0.00016</v>
       </c>
       <c r="D4">
-        <v>0.00022</v>
+        <v>-0.00031</v>
       </c>
       <c r="E4">
-        <v>0.00026</v>
+        <v>-0.00058</v>
       </c>
       <c r="F4">
-        <v>-0.00059</v>
+        <v>-0.00055</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0007</v>
+        <v>0.00035</v>
       </c>
       <c r="D5">
-        <v>0.0003</v>
+        <v>-0.0001</v>
       </c>
       <c r="E5">
-        <v>0.00033</v>
+        <v>-0.00031</v>
       </c>
       <c r="F5">
-        <v>-0.00025</v>
+        <v>-0.00031</v>
       </c>
       <c r="G5">
-        <v>-0.00015</v>
+        <v>-0.00052</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00041</v>
+        <v>0.00043</v>
       </c>
       <c r="D6">
-        <v>0.00027</v>
+        <v>-0</v>
       </c>
       <c r="E6">
-        <v>0.00032</v>
+        <v>-0.00032</v>
       </c>
       <c r="F6">
-        <v>-6E-05</v>
+        <v>-0.00043</v>
       </c>
       <c r="G6">
-        <v>-5E-05</v>
+        <v>-0.00044</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00049</v>
+        <v>0.0003</v>
       </c>
       <c r="D7">
-        <v>0.0009</v>
+        <v>4E-05</v>
       </c>
       <c r="E7">
-        <v>0.00033</v>
+        <v>-0.0001</v>
       </c>
       <c r="F7">
-        <v>0.00022</v>
+        <v>-0.00028</v>
       </c>
       <c r="G7">
-        <v>8.000000000000001E-05</v>
+        <v>-0.00039</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02034</v>
+        <v>0.02128</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01739</v>
+        <v>0.0173</v>
       </c>
       <c r="D9">
-        <v>0.01538</v>
+        <v>0.01693</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01174</v>
+        <v>0.01258</v>
       </c>
       <c r="D10">
-        <v>0.01241</v>
+        <v>0.01161</v>
       </c>
       <c r="E10">
-        <v>0.01124</v>
+        <v>0.01179</v>
       </c>
       <c r="F10">
-        <v>0.0119</v>
+        <v>0.01254</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01109</v>
+        <v>0.01128</v>
       </c>
       <c r="D11">
-        <v>0.00978</v>
+        <v>0.009719999999999999</v>
       </c>
       <c r="E11">
-        <v>0.009560000000000001</v>
+        <v>0.01011</v>
       </c>
       <c r="F11">
-        <v>0.00908</v>
+        <v>0.01022</v>
       </c>
       <c r="G11">
-        <v>0.008829999999999999</v>
+        <v>0.009950000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01347</v>
+        <v>0.00963</v>
       </c>
       <c r="D12">
-        <v>0.00925</v>
+        <v>0.00891</v>
       </c>
       <c r="E12">
-        <v>0.00915</v>
+        <v>0.00891</v>
       </c>
       <c r="F12">
-        <v>0.00842</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G12">
-        <v>0.008240000000000001</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01015</v>
+        <v>0.00885</v>
       </c>
       <c r="D13">
-        <v>0.00933</v>
+        <v>0.00805</v>
       </c>
       <c r="E13">
-        <v>0.008789999999999999</v>
+        <v>0.00844</v>
       </c>
       <c r="F13">
-        <v>0.008630000000000001</v>
+        <v>0.00827</v>
       </c>
       <c r="G13">
-        <v>0.00855</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.01568</v>
+        <v>-0.13338</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.21919</v>
+        <v>-0.04127</v>
       </c>
       <c r="D15">
-        <v>-0.13821</v>
+        <v>-0.08773</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.00371</v>
+        <v>-0.03911</v>
       </c>
       <c r="D16">
-        <v>0.05151</v>
+        <v>-0.07262</v>
       </c>
       <c r="E16">
-        <v>0.06296</v>
+        <v>-0.13746</v>
       </c>
       <c r="F16">
-        <v>-0.13959</v>
+        <v>-0.12994</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.16604</v>
+        <v>0.08253000000000001</v>
       </c>
       <c r="D17">
-        <v>0.07184</v>
+        <v>-0.02339</v>
       </c>
       <c r="E17">
-        <v>0.07838000000000001</v>
+        <v>-0.07371</v>
       </c>
       <c r="F17">
-        <v>-0.05967</v>
+        <v>-0.07469000000000001</v>
       </c>
       <c r="G17">
-        <v>-0.03625</v>
+        <v>-0.12309</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.09787</v>
+        <v>0.10146</v>
       </c>
       <c r="D18">
-        <v>0.06528</v>
+        <v>-0.00079</v>
       </c>
       <c r="E18">
-        <v>0.07656</v>
+        <v>-0.07587000000000001</v>
       </c>
       <c r="F18">
-        <v>-0.01529</v>
+        <v>-0.10329</v>
       </c>
       <c r="G18">
-        <v>-0.01292</v>
+        <v>-0.10414</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.11723</v>
+        <v>0.07165000000000001</v>
       </c>
       <c r="D19">
-        <v>0.21406</v>
+        <v>0.01048</v>
       </c>
       <c r="E19">
-        <v>0.07776</v>
+        <v>-0.02488</v>
       </c>
       <c r="F19">
-        <v>0.05177</v>
+        <v>-0.06726</v>
       </c>
       <c r="G19">
-        <v>0.01853</v>
+        <v>-0.0931</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.04998</v>
+        <v>-0.40631</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.81691</v>
+        <v>-0.15462</v>
       </c>
       <c r="D21">
-        <v>-0.58262</v>
+        <v>-0.33592</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.02048</v>
+        <v>-0.20152</v>
       </c>
       <c r="D22">
-        <v>0.26908</v>
+        <v>-0.40542</v>
       </c>
       <c r="E22">
-        <v>0.36312</v>
+        <v>-0.7557199999999999</v>
       </c>
       <c r="F22">
-        <v>-0.76024</v>
+        <v>-0.67182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.9702499999999999</v>
+        <v>0.47412</v>
       </c>
       <c r="D23">
-        <v>0.47594</v>
+        <v>-0.15591</v>
       </c>
       <c r="E23">
-        <v>0.53128</v>
+        <v>-0.47256</v>
       </c>
       <c r="F23">
-        <v>-0.42583</v>
+        <v>-0.4735</v>
       </c>
       <c r="G23">
-        <v>-0.26612</v>
+        <v>-0.80191</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.47108</v>
+        <v>0.68291</v>
       </c>
       <c r="D24">
-        <v>0.45743</v>
+        <v>-0.00577</v>
       </c>
       <c r="E24">
-        <v>0.54218</v>
+        <v>-0.55223</v>
       </c>
       <c r="F24">
-        <v>-0.11776</v>
+        <v>-0.7438900000000001</v>
       </c>
       <c r="G24">
-        <v>-0.1017</v>
+        <v>-0.7417</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.74896</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="D25">
-        <v>1.48673</v>
+        <v>0.08442</v>
       </c>
       <c r="E25">
-        <v>0.57357</v>
+        <v>-0.1911</v>
       </c>
       <c r="F25">
-        <v>0.38898</v>
+        <v>-0.52744</v>
       </c>
       <c r="G25">
-        <v>0.14043</v>
+        <v>-0.7355</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.65155</v>
+        <v>-0.6946</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.24913</v>
+        <v>-0.56199</v>
       </c>
       <c r="D27">
-        <v>-0.69725</v>
+        <v>-0.63978</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.33325</v>
+        <v>-0.48527</v>
       </c>
       <c r="D28">
-        <v>-0.28264</v>
+        <v>-0.5142099999999999</v>
       </c>
       <c r="E28">
-        <v>-0.31189</v>
+        <v>-0.71649</v>
       </c>
       <c r="F28">
-        <v>-0.83058</v>
+        <v>-0.74557</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.21856</v>
+        <v>-0.24822</v>
       </c>
       <c r="D29">
-        <v>-0.27468</v>
+        <v>-0.29705</v>
       </c>
       <c r="E29">
-        <v>-0.28864</v>
+        <v>-0.47321</v>
       </c>
       <c r="F29">
-        <v>-0.50118</v>
+        <v>-0.4985</v>
       </c>
       <c r="G29">
-        <v>-0.36313</v>
+        <v>-0.70042</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.21743</v>
+        <v>-0.19797</v>
       </c>
       <c r="D30">
-        <v>-0.20998</v>
+        <v>-0.30127</v>
       </c>
       <c r="E30">
-        <v>-0.21474</v>
+        <v>-0.4381</v>
       </c>
       <c r="F30">
-        <v>-0.33642</v>
+        <v>-0.57462</v>
       </c>
       <c r="G30">
-        <v>-0.34852</v>
+        <v>-0.58878</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.13003</v>
+        <v>-0.17945</v>
       </c>
       <c r="D31">
-        <v>-0.13909</v>
+        <v>-0.19922</v>
       </c>
       <c r="E31">
-        <v>-0.27576</v>
+        <v>-0.29417</v>
       </c>
       <c r="F31">
-        <v>-0.30154</v>
+        <v>-0.44171</v>
       </c>
       <c r="G31">
-        <v>-0.30968</v>
+        <v>-0.49374</v>
       </c>
     </row>
   </sheetData>
